--- a/biology/Botanique/Pterostemonaceae/Pterostemonaceae.xlsx
+++ b/biology/Botanique/Pterostemonaceae/Pterostemonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Ptérostémonacées regroupe des plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend 3 espèces du genre Pterostemon.
 Ce sont des arbustes très touffus, résineux, à feuilles alternes, velues à la face inférieure, des régions subtropicales à tropicales, originaires du Mexique.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Pterostemon, issu du grec πτέρης / pteris, « aile ; fougère », et de στεμον / stemon, étamine.
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[1], cette famille est optionnelle : ces plantes peuvent être incluses dans les Iteaceae.
-En classification phylogénétique APG III (2009)[2] cette famille est invalide ; le genre Pterostemon est incorporé dans la famille Iteaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003), cette famille est optionnelle : ces plantes peuvent être incluses dans les Iteaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide ; le genre Pterostemon est incorporé dans la famille Iteaceae.
 </t>
         </is>
       </c>
